--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pdgfb-Pdgfrb.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>27.388319</v>
+        <v>46.11811066666667</v>
       </c>
       <c r="H2">
-        <v>82.164957</v>
+        <v>138.354332</v>
       </c>
       <c r="I2">
-        <v>0.9327824776802173</v>
+        <v>0.95896098489411</v>
       </c>
       <c r="J2">
-        <v>0.9327824776802174</v>
+        <v>0.9589609848941099</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.188906999999999</v>
+        <v>8.488196666666667</v>
       </c>
       <c r="N2">
-        <v>15.566721</v>
+        <v>25.46459</v>
       </c>
       <c r="O2">
-        <v>0.02571200377994867</v>
+        <v>0.04138402976425696</v>
       </c>
       <c r="P2">
-        <v>0.02571200377994867</v>
+        <v>0.04138402976425696</v>
       </c>
       <c r="Q2">
-        <v>142.115440177333</v>
+        <v>391.4595932337645</v>
       </c>
       <c r="R2">
-        <v>1279.038961595997</v>
+        <v>3523.13633910388</v>
       </c>
       <c r="S2">
-        <v>0.02398370659198364</v>
+        <v>0.03968566994161901</v>
       </c>
       <c r="T2">
-        <v>0.02398370659198364</v>
+        <v>0.03968566994161901</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>27.388319</v>
+        <v>46.11811066666667</v>
       </c>
       <c r="H3">
-        <v>82.164957</v>
+        <v>138.354332</v>
       </c>
       <c r="I3">
-        <v>0.9327824776802173</v>
+        <v>0.95896098489411</v>
       </c>
       <c r="J3">
-        <v>0.9327824776802174</v>
+        <v>0.9589609848941099</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>202.900665</v>
       </c>
       <c r="O3">
-        <v>0.3351369029761694</v>
+        <v>0.3297460182766552</v>
       </c>
       <c r="P3">
-        <v>0.3351369029761695</v>
+        <v>0.3297460182766552</v>
       </c>
       <c r="Q3">
-        <v>1852.369379444045</v>
+        <v>3119.131774270087</v>
       </c>
       <c r="R3">
-        <v>16671.3244149964</v>
+        <v>28072.18596843078</v>
       </c>
       <c r="S3">
-        <v>0.3126098307201859</v>
+        <v>0.3162135664514925</v>
       </c>
       <c r="T3">
-        <v>0.312609830720186</v>
+        <v>0.3162135664514924</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>27.388319</v>
+        <v>46.11811066666667</v>
       </c>
       <c r="H4">
-        <v>82.164957</v>
+        <v>138.354332</v>
       </c>
       <c r="I4">
-        <v>0.9327824776802173</v>
+        <v>0.95896098489411</v>
       </c>
       <c r="J4">
-        <v>0.9327824776802174</v>
+        <v>0.9589609848941099</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>386.958824</v>
       </c>
       <c r="O4">
-        <v>0.6391510932438819</v>
+        <v>0.6288699519590879</v>
       </c>
       <c r="P4">
-        <v>0.6391510932438819</v>
+        <v>0.6288699519590879</v>
       </c>
       <c r="Q4">
-        <v>3532.717237192285</v>
+        <v>5948.603289558397</v>
       </c>
       <c r="R4">
-        <v>31794.45513473057</v>
+        <v>53537.42960602557</v>
       </c>
       <c r="S4">
-        <v>0.5961889403680477</v>
+        <v>0.6030617485009986</v>
       </c>
       <c r="T4">
-        <v>0.5961889403680478</v>
+        <v>0.6030617485009985</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.403932</v>
       </c>
       <c r="I5">
-        <v>0.004585661643738529</v>
+        <v>0.002799731840346333</v>
       </c>
       <c r="J5">
-        <v>0.004585661643738529</v>
+        <v>0.002799731840346333</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.188906999999999</v>
+        <v>8.488196666666667</v>
       </c>
       <c r="N5">
-        <v>15.566721</v>
+        <v>25.46459</v>
       </c>
       <c r="O5">
-        <v>0.02571200377994867</v>
+        <v>0.04138402976425696</v>
       </c>
       <c r="P5">
-        <v>0.02571200377994867</v>
+        <v>0.04138402976425696</v>
       </c>
       <c r="Q5">
-        <v>0.698655194108</v>
+        <v>1.142884751986667</v>
       </c>
       <c r="R5">
-        <v>6.287896746971999</v>
+        <v>10.28596276788</v>
       </c>
       <c r="S5">
-        <v>0.0001179065495173707</v>
+        <v>0.0001158641858128306</v>
       </c>
       <c r="T5">
-        <v>0.0001179065495173707</v>
+        <v>0.0001158641858128306</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.403932</v>
       </c>
       <c r="I6">
-        <v>0.004585661643738529</v>
+        <v>0.002799731840346333</v>
       </c>
       <c r="J6">
-        <v>0.004585661643738529</v>
+        <v>0.002799731840346333</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>202.900665</v>
       </c>
       <c r="O6">
-        <v>0.3351369029761694</v>
+        <v>0.3297460182766552</v>
       </c>
       <c r="P6">
-        <v>0.3351369029761695</v>
+        <v>0.3297460182766552</v>
       </c>
       <c r="Q6">
-        <v>9.10645237942</v>
+        <v>9.106452379419999</v>
       </c>
       <c r="R6">
-        <v>81.95807141478001</v>
+        <v>81.95807141477999</v>
       </c>
       <c r="S6">
-        <v>0.001536824441379141</v>
+        <v>0.0009232004265965753</v>
       </c>
       <c r="T6">
-        <v>0.001536824441379141</v>
+        <v>0.0009232004265965753</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.403932</v>
       </c>
       <c r="I7">
-        <v>0.004585661643738529</v>
+        <v>0.002799731840346333</v>
       </c>
       <c r="J7">
-        <v>0.004585661643738529</v>
+        <v>0.002799731840346333</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>386.958824</v>
       </c>
       <c r="O7">
-        <v>0.6391510932438819</v>
+        <v>0.6288699519590879</v>
       </c>
       <c r="P7">
-        <v>0.6391510932438819</v>
+        <v>0.6288699519590879</v>
       </c>
       <c r="Q7">
         <v>17.36722796621867</v>
@@ -880,10 +880,10 @@
         <v>156.305051695968</v>
       </c>
       <c r="S7">
-        <v>0.002930930652842017</v>
+        <v>0.001760667227936927</v>
       </c>
       <c r="T7">
-        <v>0.002930930652842017</v>
+        <v>0.001760667227936927</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>5.516982</v>
       </c>
       <c r="I8">
-        <v>0.06263186067604418</v>
+        <v>0.0382392832655437</v>
       </c>
       <c r="J8">
-        <v>0.06263186067604418</v>
+        <v>0.0382392832655437</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.188906999999999</v>
+        <v>8.488196666666667</v>
       </c>
       <c r="N8">
-        <v>15.566721</v>
+        <v>25.46459</v>
       </c>
       <c r="O8">
-        <v>0.02571200377994867</v>
+        <v>0.04138402976425696</v>
       </c>
       <c r="P8">
-        <v>0.02571200377994867</v>
+        <v>0.04138402976425696</v>
       </c>
       <c r="Q8">
-        <v>9.542368839558</v>
+        <v>15.60974274082</v>
       </c>
       <c r="R8">
-        <v>85.88131955602199</v>
+        <v>140.48768466738</v>
       </c>
       <c r="S8">
-        <v>0.001610390638447666</v>
+        <v>0.001582495636825113</v>
       </c>
       <c r="T8">
-        <v>0.001610390638447666</v>
+        <v>0.001582495636825113</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.516982</v>
       </c>
       <c r="I9">
-        <v>0.06263186067604418</v>
+        <v>0.0382392832655437</v>
       </c>
       <c r="J9">
-        <v>0.06263186067604418</v>
+        <v>0.0382392832655437</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>202.900665</v>
       </c>
       <c r="O9">
-        <v>0.3351369029761694</v>
+        <v>0.3297460182766552</v>
       </c>
       <c r="P9">
-        <v>0.3351369029761695</v>
+        <v>0.3297460182766552</v>
       </c>
       <c r="Q9">
         <v>124.37770184367</v>
@@ -1004,10 +1004,10 @@
         <v>1119.39931659303</v>
       </c>
       <c r="S9">
-        <v>0.02099024781460438</v>
+        <v>0.01260925139856617</v>
       </c>
       <c r="T9">
-        <v>0.02099024781460438</v>
+        <v>0.01260925139856617</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.516982</v>
       </c>
       <c r="I10">
-        <v>0.06263186067604418</v>
+        <v>0.0382392832655437</v>
       </c>
       <c r="J10">
-        <v>0.06263186067604418</v>
+        <v>0.0382392832655437</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>386.958824</v>
       </c>
       <c r="O10">
-        <v>0.6391510932438819</v>
+        <v>0.6288699519590879</v>
       </c>
       <c r="P10">
-        <v>0.6391510932438819</v>
+        <v>0.6288699519590879</v>
       </c>
       <c r="Q10">
         <v>237.204985194352</v>
@@ -1066,10 +1066,10 @@
         <v>2134.844866749168</v>
       </c>
       <c r="S10">
-        <v>0.04003122222299213</v>
+        <v>0.02404753623015242</v>
       </c>
       <c r="T10">
-        <v>0.04003122222299213</v>
+        <v>0.02404753623015242</v>
       </c>
     </row>
   </sheetData>
